--- a/USHPRR/blister_testing.xlsx
+++ b/USHPRR/blister_testing.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257A5CE6-B2A4-F441-BD56-36BC42FA09AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38742EA5-259D-9147-95F0-59B9ACA29DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15800" yWindow="3060" windowWidth="23760" windowHeight="17440" xr2:uid="{EF9E1285-7AFF-8842-9DED-2D07DDD84A46}"/>
+    <workbookView xWindow="780" yWindow="1000" windowWidth="23760" windowHeight="17440" xr2:uid="{EF9E1285-7AFF-8842-9DED-2D07DDD84A46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -194,9 +194,6 @@
     <t>Jahid's GB with re-lattice for void/bubble control</t>
   </si>
   <si>
-    <t>testing</t>
-  </si>
-  <si>
     <t>As</t>
   </si>
   <si>
@@ -216,6 +213,9 @@
   </si>
   <si>
     <t>vacs</t>
+  </si>
+  <si>
+    <t>connected ~1250K</t>
   </si>
 </sst>
 </file>
@@ -260,10 +260,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,10 +580,13 @@
   <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="15.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1190,10 +1192,10 @@
         <v>43</v>
       </c>
       <c r="H40" t="s">
+        <v>56</v>
+      </c>
+      <c r="I40" t="s">
         <v>57</v>
-      </c>
-      <c r="I40" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1212,22 +1214,6 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-    </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>50</v>
@@ -1236,10 +1222,10 @@
         <v>51</v>
       </c>
       <c r="I44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
@@ -1282,7 +1268,7 @@
         <v>16</v>
       </c>
       <c r="H46" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I46">
         <f>6691/5</f>
@@ -1295,7 +1281,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C47">
         <v>5.5</v>
@@ -1307,7 +1293,7 @@
         <v>500</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G47" t="s">
         <v>17</v>
@@ -1388,7 +1374,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="s">
         <v>27</v>
@@ -1427,7 +1413,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54">
         <v>8.5</v>
@@ -1439,7 +1425,7 @@
         <v>2000</v>
       </c>
       <c r="F54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G54" t="s">
         <v>17</v>

--- a/USHPRR/blister_testing.xlsx
+++ b/USHPRR/blister_testing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/USHPRR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38742EA5-259D-9147-95F0-59B9ACA29DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FDF49B-8965-724F-BA5A-7702566C5D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="23760" windowHeight="17440" xr2:uid="{EF9E1285-7AFF-8842-9DED-2D07DDD84A46}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="17560" windowHeight="15800" xr2:uid="{EF9E1285-7AFF-8842-9DED-2D07DDD84A46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="63">
   <si>
     <t>blister testing stuff</t>
   </si>
@@ -215,7 +215,16 @@
     <t>vacs</t>
   </si>
   <si>
-    <t>connected ~1250K</t>
+    <t>connected 1200-1300K</t>
+  </si>
+  <si>
+    <t>connected 1190-1270K</t>
+  </si>
+  <si>
+    <t>connected 600-780K</t>
+  </si>
+  <si>
+    <t>connected 1170-1200K</t>
   </si>
 </sst>
 </file>
@@ -579,13 +588,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1A936F-BF24-D94B-A9DF-5450BEED2549}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="15.83203125" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -1268,7 +1277,7 @@
         <v>16</v>
       </c>
       <c r="H46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I46">
         <f>6691/5</f>
@@ -1299,7 +1308,7 @@
         <v>17</v>
       </c>
       <c r="H47" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="I47">
         <f>6691/5</f>
@@ -1330,7 +1339,7 @@
         <v>16</v>
       </c>
       <c r="H48" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="I48">
         <f>11039/5</f>
@@ -1361,7 +1370,7 @@
         <v>16</v>
       </c>
       <c r="H50" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="I50">
         <f>17075 /5</f>

--- a/USHPRR/blister_testing.xlsx
+++ b/USHPRR/blister_testing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FDF49B-8965-724F-BA5A-7702566C5D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38542F18-7DBF-7A4B-8122-02365079F9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="17560" windowHeight="15800" xr2:uid="{EF9E1285-7AFF-8842-9DED-2D07DDD84A46}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="20740" windowHeight="17800" xr2:uid="{EF9E1285-7AFF-8842-9DED-2D07DDD84A46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="72">
   <si>
     <t>blister testing stuff</t>
   </si>
@@ -225,6 +225,33 @@
   </si>
   <si>
     <t>connected 1170-1200K</t>
+  </si>
+  <si>
+    <t>connected 1400-1460K</t>
+  </si>
+  <si>
+    <t>connected 1370-1450K</t>
+  </si>
+  <si>
+    <t>8 grains</t>
+  </si>
+  <si>
+    <t>connected, and vented</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>system too small</t>
+  </si>
+  <si>
+    <t>connected 1425-1480K</t>
+  </si>
+  <si>
+    <t>blisterG</t>
   </si>
 </sst>
 </file>
@@ -586,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1A936F-BF24-D94B-A9DF-5450BEED2549}">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1256,6 +1283,9 @@
       <c r="H45" t="s">
         <v>7</v>
       </c>
+      <c r="K45" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
@@ -1350,7 +1380,7 @@
         <v>0.33970468339523507</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>10</v>
       </c>
@@ -1381,7 +1411,7 @@
         <v>0.35139092240117131</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -1389,7 +1419,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>3</v>
       </c>
@@ -1409,7 +1439,7 @@
         <v>16</v>
       </c>
       <c r="H53" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="I53">
         <f>20260 /4</f>
@@ -1420,7 +1450,7 @@
         <v>0.39486673247778875</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>52</v>
       </c>
@@ -1440,7 +1470,7 @@
         <v>17</v>
       </c>
       <c r="H54" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="I54">
         <f>20260 /4</f>
@@ -1451,7 +1481,7 @@
         <v>0.39486673247778875</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>9</v>
       </c>
@@ -1471,7 +1501,7 @@
         <v>16</v>
       </c>
       <c r="H55" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="I55">
         <f>5644/4</f>
@@ -1480,6 +1510,63 @@
       <c r="J55">
         <f>E55/I55</f>
         <v>0.3543586109142452</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>6.5</v>
+      </c>
+      <c r="D58">
+        <v>16</v>
+      </c>
+      <c r="E58">
+        <v>750</v>
+      </c>
+      <c r="F58" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" t="s">
+        <v>67</v>
+      </c>
+      <c r="H58" t="s">
+        <v>66</v>
+      </c>
+      <c r="K58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>6.5</v>
+      </c>
+      <c r="D59">
+        <v>16</v>
+      </c>
+      <c r="E59">
+        <v>750</v>
+      </c>
+      <c r="F59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" t="s">
+        <v>67</v>
+      </c>
+      <c r="H59" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/USHPRR/blister_testing.xlsx
+++ b/USHPRR/blister_testing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38542F18-7DBF-7A4B-8122-02365079F9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9129C1BE-7811-DE4C-B444-2465BD8925B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="20740" windowHeight="17800" xr2:uid="{EF9E1285-7AFF-8842-9DED-2D07DDD84A46}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="15820" xr2:uid="{EF9E1285-7AFF-8842-9DED-2D07DDD84A46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="74">
   <si>
     <t>blister testing stuff</t>
   </si>
@@ -252,6 +252,12 @@
   </si>
   <si>
     <t>blisterG</t>
+  </si>
+  <si>
+    <t>connected half</t>
+  </si>
+  <si>
+    <t>quick ramp, long hold</t>
   </si>
 </sst>
 </file>
@@ -613,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1A936F-BF24-D94B-A9DF-5450BEED2549}">
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1411,48 +1417,40 @@
         <v>0.35139092240117131</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51">
+        <v>7.5</v>
+      </c>
+      <c r="D51">
+        <v>18</v>
+      </c>
+      <c r="E51">
+        <v>1200</v>
+      </c>
+      <c r="F51" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>54</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53">
-        <v>8.5</v>
-      </c>
-      <c r="D53">
-        <v>22</v>
-      </c>
-      <c r="E53">
-        <v>2000</v>
-      </c>
-      <c r="F53" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" t="s">
-        <v>16</v>
-      </c>
-      <c r="H53" t="s">
-        <v>64</v>
-      </c>
-      <c r="I53">
-        <f>20260 /4</f>
-        <v>5065</v>
-      </c>
-      <c r="J53">
-        <f>E53/I53</f>
-        <v>0.39486673247778875</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="C54">
         <v>8.5</v>
@@ -1464,13 +1462,13 @@
         <v>2000</v>
       </c>
       <c r="F54" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="G54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H54" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I54">
         <f>20260 /4</f>
@@ -1483,72 +1481,77 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55">
+        <v>8.5</v>
+      </c>
+      <c r="D55">
+        <v>22</v>
+      </c>
+      <c r="E55">
+        <v>2000</v>
+      </c>
+      <c r="F55" t="s">
+        <v>55</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" t="s">
+        <v>70</v>
+      </c>
+      <c r="I55">
+        <f>20260 /4</f>
+        <v>5065</v>
+      </c>
+      <c r="J55">
+        <f>E55/I55</f>
+        <v>0.39486673247778875</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
         <v>9</v>
       </c>
-      <c r="C55">
+      <c r="C56">
         <v>5.5</v>
       </c>
-      <c r="D55">
+      <c r="D56">
         <v>14</v>
       </c>
-      <c r="E55">
+      <c r="E56">
         <v>500</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F56" t="s">
         <v>22</v>
       </c>
-      <c r="G55" t="s">
-        <v>16</v>
-      </c>
-      <c r="H55" t="s">
+      <c r="G56" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" t="s">
         <v>63</v>
       </c>
-      <c r="I55">
+      <c r="I56">
         <f>5644/4</f>
         <v>1411</v>
       </c>
-      <c r="J55">
-        <f>E55/I55</f>
+      <c r="J56">
+        <f>E56/I56</f>
         <v>0.3543586109142452</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>71</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58">
-        <v>6.5</v>
-      </c>
-      <c r="D58">
-        <v>16</v>
-      </c>
-      <c r="E58">
-        <v>750</v>
-      </c>
-      <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" t="s">
-        <v>67</v>
-      </c>
-      <c r="H58" t="s">
-        <v>66</v>
-      </c>
-      <c r="K58" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C59">
         <v>6.5</v>
@@ -1566,6 +1569,95 @@
         <v>67</v>
       </c>
       <c r="H59" t="s">
+        <v>66</v>
+      </c>
+      <c r="K59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60">
+        <v>6.5</v>
+      </c>
+      <c r="D60">
+        <v>16</v>
+      </c>
+      <c r="E60">
+        <v>750</v>
+      </c>
+      <c r="F60" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s">
+        <v>67</v>
+      </c>
+      <c r="H60" t="s">
+        <v>72</v>
+      </c>
+      <c r="I60">
+        <v>1850</v>
+      </c>
+      <c r="J60">
+        <f>E60/I60</f>
+        <v>0.40540540540540543</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>6.5</v>
+      </c>
+      <c r="D61">
+        <v>16</v>
+      </c>
+      <c r="E61">
+        <v>750</v>
+      </c>
+      <c r="F61" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" t="s">
+        <v>67</v>
+      </c>
+      <c r="H61" t="s">
+        <v>45</v>
+      </c>
+      <c r="I61">
+        <v>1850</v>
+      </c>
+      <c r="J61">
+        <f>E61/I61</f>
+        <v>0.40540540540540543</v>
+      </c>
+      <c r="K61" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62">
+        <v>6.5</v>
+      </c>
+      <c r="D62">
+        <v>14</v>
+      </c>
+      <c r="E62">
+        <v>750</v>
+      </c>
+      <c r="F62" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" t="s">
+        <v>67</v>
+      </c>
+      <c r="H62" t="s">
         <v>45</v>
       </c>
     </row>

--- a/USHPRR/blister_testing.xlsx
+++ b/USHPRR/blister_testing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9129C1BE-7811-DE4C-B444-2465BD8925B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4FB32B-35D4-454E-AE5C-8098DA47AF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="15820" xr2:uid="{EF9E1285-7AFF-8842-9DED-2D07DDD84A46}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23940" windowHeight="17520" xr2:uid="{EF9E1285-7AFF-8842-9DED-2D07DDD84A46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="78">
   <si>
     <t>blister testing stuff</t>
   </si>
@@ -258,6 +258,18 @@
   </si>
   <si>
     <t>quick ramp, long hold</t>
+  </si>
+  <si>
+    <t>connected immediately</t>
+  </si>
+  <si>
+    <t>still running</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>same as C, but longer</t>
   </si>
 </sst>
 </file>
@@ -323,7 +335,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -611,7 +623,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -619,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1A936F-BF24-D94B-A9DF-5450BEED2549}">
-  <dimension ref="A1:N62"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+      <selection activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1386,7 +1398,7 @@
         <v>0.33970468339523507</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>10</v>
       </c>
@@ -1417,7 +1429,7 @@
         <v>0.35139092240117131</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>18</v>
       </c>
@@ -1440,7 +1452,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1448,7 +1460,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>3</v>
       </c>
@@ -1479,7 +1491,7 @@
         <v>0.39486673247778875</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>52</v>
       </c>
@@ -1510,7 +1522,7 @@
         <v>0.39486673247778875</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>9</v>
       </c>
@@ -1541,7 +1553,7 @@
         <v>0.3543586109142452</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>71</v>
       </c>
@@ -1549,7 +1561,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>3</v>
       </c>
@@ -1571,11 +1583,18 @@
       <c r="H59" t="s">
         <v>66</v>
       </c>
+      <c r="I59">
+        <v>1850</v>
+      </c>
+      <c r="J59">
+        <f>E59/I59</f>
+        <v>0.40540540540540543</v>
+      </c>
       <c r="K59" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>9</v>
       </c>
@@ -1605,7 +1624,7 @@
         <v>0.40540540540540543</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>10</v>
       </c>
@@ -1625,7 +1644,7 @@
         <v>67</v>
       </c>
       <c r="H61" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="I61">
         <v>1850</v>
@@ -1638,15 +1657,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="C62">
         <v>6.5</v>
       </c>
       <c r="D62">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E62">
         <v>750</v>
@@ -1659,6 +1678,49 @@
       </c>
       <c r="H62" t="s">
         <v>45</v>
+      </c>
+      <c r="I62">
+        <v>1850</v>
+      </c>
+      <c r="J62">
+        <f>E62/I62</f>
+        <v>0.40540540540540543</v>
+      </c>
+      <c r="K62" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63">
+        <v>6.5</v>
+      </c>
+      <c r="D63">
+        <v>14</v>
+      </c>
+      <c r="E63">
+        <v>750</v>
+      </c>
+      <c r="F63" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" t="s">
+        <v>67</v>
+      </c>
+      <c r="H63" t="s">
+        <v>74</v>
+      </c>
+      <c r="I63">
+        <v>1850</v>
+      </c>
+      <c r="J63">
+        <f>E63/I63</f>
+        <v>0.40540540540540543</v>
+      </c>
+      <c r="M63" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
